--- a/timeline.xlsx
+++ b/timeline.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\docs\skool\CMSC 495 - Capstone\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A599B7AF-0F81-4112-A95B-9F3102335BA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC213064-F1AE-4B4D-B395-44B8D9B5FB32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="1275" windowWidth="20760" windowHeight="12600" activeTab="1" xr2:uid="{B4AFA10A-A514-4DEF-8CF8-93D6B23AFC6E}"/>
+    <workbookView xWindow="4035" yWindow="915" windowWidth="18090" windowHeight="12375" activeTab="1" xr2:uid="{B4AFA10A-A514-4DEF-8CF8-93D6B23AFC6E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Timeline" sheetId="1" r:id="rId1"/>
+    <sheet name="Task Ack" sheetId="3" r:id="rId2"/>
+    <sheet name="Roles" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
   <si>
     <t>Column5</t>
   </si>
@@ -213,13 +214,163 @@
   </si>
   <si>
     <t>Group Leader</t>
+  </si>
+  <si>
+    <t>Task and Acknowledgement</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Task: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Access Teams &amp; Github</t>
+    </r>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Task: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tools (Github)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Task: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Desktop GUI research</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Task: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Database research</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Task: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Asdf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Task: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>UML Diagram</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Task: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Web UI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Task: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Report Generator</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Task: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Authenticator</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Task: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Income Tracker</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,8 +386,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,8 +461,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8696B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA8E72"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCB379"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFED880"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9E583"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD881"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90CB7E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF63BE7B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -273,24 +545,261 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -298,66 +807,318 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -715,22 +1476,23 @@
   <dimension ref="A4:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="11" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="20" width="12" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -792,12 +1554,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -807,11 +1569,11 @@
       <c r="H6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -840,7 +1602,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -865,11 +1627,11 @@
       <c r="I8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="24" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -894,11 +1656,11 @@
       <c r="I9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -927,7 +1689,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -956,7 +1718,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -986,10 +1748,246 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CD255E-89E4-4BD0-9EBE-C152932B5760}">
+  <dimension ref="B3:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="27"/>
+      <c r="C5" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="28">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="29">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="31"/>
+      <c r="C8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="32">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="33">
+        <v>5</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="34">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="35">
+        <v>7</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="36">
+        <v>8</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8A9B5E-71FF-4022-AC0F-F08FE76E60C3}">
   <dimension ref="B3:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1058,64 +2056,64 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>3</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>4</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>5</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
